--- a/BasicMod-master/瞬间牌.xlsx
+++ b/BasicMod-master/瞬间牌.xlsx
@@ -4,13 +4,69 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="13190"/>
+    <workbookView windowWidth="12910" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>卡牌</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>我要拉黑你</t>
+  </si>
+  <si>
+    <t>消灭一个非boss敌人</t>
+  </si>
+  <si>
+    <t>所有敌人</t>
+  </si>
+  <si>
+    <t>uncommon</t>
+  </si>
+  <si>
+    <t>有趣的女人</t>
+  </si>
+  <si>
+    <t>获得x倍的无实体</t>
+  </si>
+  <si>
+    <t>2x倍</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>祝你幸福</t>
+  </si>
+  <si>
+    <t>999点格挡和20层临时荆棘</t>
+  </si>
+  <si>
+    <t>20层荆棘</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -947,14 +1003,87 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="52.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/BasicMod-master/瞬间牌.xlsx
+++ b/BasicMod-master/瞬间牌.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12910" windowHeight="6870"/>
+    <workbookView windowWidth="24930" windowHeight="13190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>卡牌</t>
   </si>
@@ -58,6 +58,33 @@
     <t>common</t>
   </si>
   <si>
+    <t>赛亚库</t>
+  </si>
+  <si>
+    <t>将10张哈置入手牌，每张溢出的哈使其他哈+3攻</t>
+  </si>
+  <si>
+    <t>升级的哈（+2）</t>
+  </si>
+  <si>
+    <t>偷摸偷摸</t>
+  </si>
+  <si>
+    <t>获得敌人数量30倍的金钱</t>
+  </si>
+  <si>
+    <t>45倍</t>
+  </si>
+  <si>
+    <t>白月光</t>
+  </si>
+  <si>
+    <t>回复一半损失生命</t>
+  </si>
+  <si>
+    <t>回复所有生命</t>
+  </si>
+  <si>
     <t>祝你幸福</t>
   </si>
   <si>
@@ -65,6 +92,51 @@
   </si>
   <si>
     <t>20层荆棘</t>
+  </si>
+  <si>
+    <t>平地摔</t>
+  </si>
+  <si>
+    <t>选择一张手牌将其消耗并从牌组中移除</t>
+  </si>
+  <si>
+    <t>打出后移除</t>
+  </si>
+  <si>
+    <t>命运共同体</t>
+  </si>
+  <si>
+    <t>平均血量</t>
+  </si>
+  <si>
+    <t>2费用</t>
+  </si>
+  <si>
+    <t>RARY</t>
+  </si>
+  <si>
+    <t>为什么要演奏春日影</t>
+  </si>
+  <si>
+    <t>眩晕所有敌人一回合</t>
+  </si>
+  <si>
+    <t>2回合</t>
+  </si>
+  <si>
+    <t>激励</t>
+  </si>
+  <si>
+    <t>获得6点力量</t>
+  </si>
+  <si>
+    <t>10点</t>
+  </si>
+  <si>
+    <t>好想成为人类</t>
+  </si>
+  <si>
+    <t>最需要练习</t>
   </si>
 </sst>
 </file>
@@ -1003,16 +1075,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="52.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="18.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1066,21 +1139,155 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/BasicMod-master/瞬间牌.xlsx
+++ b/BasicMod-master/瞬间牌.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>卡牌</t>
   </si>
@@ -131,12 +131,6 @@
   </si>
   <si>
     <t>10点</t>
-  </si>
-  <si>
-    <t>好想成为人类</t>
-  </si>
-  <si>
-    <t>最需要练习</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1275,21 +1269,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
